--- a/dbx1000/DBx1000-Figs-fixed.xlsx
+++ b/dbx1000/DBx1000-Figs-fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wsl_ubuntu\github\ccdata\dbx1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE431FA-FD51-479F-A676-2BD3EF3A13A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058F5117-5800-4C33-BD40-12BB0AF89C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="372" windowWidth="19476" windowHeight="14556" xr2:uid="{A189210E-F54B-4903-A04B-9C2063EAF56C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A189210E-F54B-4903-A04B-9C2063EAF56C}"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Fig4a" sheetId="1" r:id="rId10"/>
     <sheet name="bench_4a" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="36">
   <si>
     <t>THREAD_CNT</t>
   </si>
@@ -152,6 +154,10 @@
   </si>
   <si>
     <t>Througput</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Abort rate</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11914,15 +11920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12346,13 +12352,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C5E422-F1C1-458B-8265-49F71232DE39}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2"/>
@@ -12370,12 +12376,12 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12386,7 +12392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12407,7 +12413,7 @@
         <v>57.353899176772806</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -12428,7 +12434,7 @@
         <v>183.91528323596421</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>265.69736928632562</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -12470,7 +12476,7 @@
         <v>241.18673548314521</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>171.42385088318997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -12512,94 +12518,94 @@
         <v>159.50143209964588</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A37"/>
     </row>
   </sheetData>
@@ -12618,12 +12624,12 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -12703,7 +12709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -12784,7 +12790,7 @@
         <v>3.1580000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -12865,7 +12871,7 @@
         <v>3.192E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -12946,7 +12952,7 @@
         <v>3.1610000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>0.125113</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -13108,7 +13114,7 @@
         <v>0.11073</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -13189,7 +13195,7 @@
         <v>0.14097199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -13270,7 +13276,7 @@
         <v>0.53581199999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13351,7 +13357,7 @@
         <v>0.56713499999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13432,7 +13438,7 @@
         <v>0.51238899999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -13513,7 +13519,7 @@
         <v>1.551393</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -13594,7 +13600,7 @@
         <v>1.612412</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -13675,7 +13681,7 @@
         <v>1.6038079999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -13756,7 +13762,7 @@
         <v>1.850482</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -13837,7 +13843,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -13918,7 +13924,7 @@
         <v>1.772238</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -13999,7 +14005,7 @@
         <v>3.9220540000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>3.8044159999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -14161,7 +14167,7 @@
         <v>3.8192789999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>3.1879999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -14323,7 +14329,7 @@
         <v>3.1879999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -14404,7 +14410,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -14485,7 +14491,7 @@
         <v>0.122021</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -14566,7 +14572,7 @@
         <v>0.109525</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -14647,7 +14653,7 @@
         <v>0.10183300000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -14728,7 +14734,7 @@
         <v>0.34664099999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -14809,7 +14815,7 @@
         <v>0.36272799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -14890,7 +14896,7 @@
         <v>0.416522</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -14971,7 +14977,7 @@
         <v>0.93609500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -15052,7 +15058,7 @@
         <v>0.91296900000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -15133,7 +15139,7 @@
         <v>1.0012399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -15214,7 +15220,7 @@
         <v>1.3435220000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -15295,7 +15301,7 @@
         <v>1.384668</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -15376,7 +15382,7 @@
         <v>1.3277950000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -15457,7 +15463,7 @@
         <v>2.224904</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -15538,7 +15544,7 @@
         <v>2.1783939999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -15634,13 +15640,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15651,7 +15657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>28</v>
       </c>
@@ -15664,7 +15670,7 @@
         <v>14.788217314477262</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>56</v>
       </c>
@@ -15677,7 +15683,7 @@
         <v>25.008818529185298</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>84</v>
       </c>
@@ -15690,7 +15696,7 @@
         <v>27.142125424451212</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>112</v>
       </c>
@@ -15703,7 +15709,7 @@
         <v>31.614823306818074</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>140</v>
       </c>
@@ -15716,7 +15722,7 @@
         <v>31.62336488587097</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>168</v>
       </c>
@@ -15729,7 +15735,7 @@
         <v>48.779204472155719</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>196</v>
       </c>
@@ -15742,7 +15748,7 @@
         <v>47.098752354512726</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>224</v>
       </c>
@@ -15755,220 +15761,220 @@
         <v>46.735900318000354</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A81"/>
     </row>
   </sheetData>
@@ -15987,18 +15993,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="2"/>
-    <col min="3" max="11" width="9.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" style="2" customWidth="1"/>
-    <col min="13" max="20" width="9.6328125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.36328125" style="2" customWidth="1"/>
-    <col min="22" max="26" width="9.6328125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="8.77734375" style="2"/>
+    <col min="3" max="11" width="9.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="2" customWidth="1"/>
+    <col min="13" max="20" width="9.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" style="2" customWidth="1"/>
+    <col min="22" max="26" width="9.6640625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -16078,7 +16084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -16159,7 +16165,7 @@
         <v>9.4181000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -16240,7 +16246,7 @@
         <v>9.9537E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -16321,7 +16327,7 @@
         <v>8.9106000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -16402,7 +16408,7 @@
         <v>0.10530399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -16483,7 +16489,7 @@
         <v>9.2460000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -16564,7 +16570,7 @@
         <v>9.8642999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -16645,7 +16651,7 @@
         <v>9.0326000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -16726,7 +16732,7 @@
         <v>9.4248999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -16807,7 +16813,7 @@
         <v>9.2260999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -16888,7 +16894,7 @@
         <v>9.4492000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -16969,7 +16975,7 @@
         <v>0.23124</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>0.21290899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -17131,7 +17137,7 @@
         <v>0.19709299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -17212,7 +17218,7 @@
         <v>0.217941</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -17293,7 +17299,7 @@
         <v>0.222415</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -17374,7 +17380,7 @@
         <v>0.238735</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -17455,7 +17461,7 @@
         <v>0.23174800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -17536,7 +17542,7 @@
         <v>0.191246</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -17617,7 +17623,7 @@
         <v>0.22453899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -17698,7 +17704,7 @@
         <v>0.21371999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -17779,7 +17785,7 @@
         <v>0.39818999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -17860,7 +17866,7 @@
         <v>0.45204299999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17941,7 +17947,7 @@
         <v>0.44856299999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -18022,7 +18028,7 @@
         <v>0.39346700000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -18103,7 +18109,7 @@
         <v>0.43887900000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -18184,7 +18190,7 @@
         <v>0.43447799999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -18265,7 +18271,7 @@
         <v>0.41862700000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -18346,7 +18352,7 @@
         <v>0.47533199999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -18427,7 +18433,7 @@
         <v>0.38775900000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -18508,7 +18514,7 @@
         <v>0.40351700000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -18589,7 +18595,7 @@
         <v>0.46807399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>0.55752800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -18751,7 +18757,7 @@
         <v>0.58435999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -18832,7 +18838,7 @@
         <v>0.61897000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -18913,7 +18919,7 @@
         <v>0.48663400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -18994,7 +19000,7 @@
         <v>0.57492100000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -19075,7 +19081,7 @@
         <v>0.54484900000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -19156,7 +19162,7 @@
         <v>0.60866600000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
@@ -19237,7 +19243,7 @@
         <v>0.49164200000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -19318,7 +19324,7 @@
         <v>0.57819799999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -19399,7 +19405,7 @@
         <v>0.68663200000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -19480,7 +19486,7 @@
         <v>0.61522900000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -19561,7 +19567,7 @@
         <v>0.64097000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -19642,7 +19648,7 @@
         <v>0.69777500000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -19723,7 +19729,7 @@
         <v>0.58530599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -19804,7 +19810,7 @@
         <v>0.60370000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -19885,7 +19891,7 @@
         <v>1.0175080000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -19966,7 +19972,7 @@
         <v>1.093736</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -20047,7 +20053,7 @@
         <v>0.96827099999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
@@ -20128,7 +20134,7 @@
         <v>0.70876899999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -20209,7 +20215,7 @@
         <v>0.64029800000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
@@ -20290,7 +20296,7 @@
         <v>0.68591000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
@@ -20371,7 +20377,7 @@
         <v>1.0074240000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>28</v>
       </c>
@@ -20452,7 +20458,7 @@
         <v>0.65037500000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
@@ -20533,7 +20539,7 @@
         <v>0.69406299999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>28</v>
       </c>
@@ -20614,7 +20620,7 @@
         <v>0.83220099999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
@@ -20695,7 +20701,7 @@
         <v>0.63192000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>0.76981999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -20857,7 +20863,7 @@
         <v>0.62237600000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
@@ -20938,7 +20944,7 @@
         <v>0.66171599999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>28</v>
       </c>
@@ -21019,7 +21025,7 @@
         <v>0.96741999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>28</v>
       </c>
@@ -21100,7 +21106,7 @@
         <v>0.99760700000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>28</v>
       </c>
@@ -21181,7 +21187,7 @@
         <v>0.74311300000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
@@ -21262,7 +21268,7 @@
         <v>0.73377000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>28</v>
       </c>
@@ -21343,7 +21349,7 @@
         <v>0.88445300000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
@@ -21424,7 +21430,7 @@
         <v>0.75109400000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>28</v>
       </c>
@@ -21505,7 +21511,7 @@
         <v>0.93761399999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>28</v>
       </c>
@@ -21586,7 +21592,7 @@
         <v>0.73178399999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>28</v>
       </c>
@@ -21667,7 +21673,7 @@
         <v>0.75179799999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>28</v>
       </c>
@@ -21748,7 +21754,7 @@
         <v>0.82001199999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
@@ -21829,7 +21835,7 @@
         <v>1.569847</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>28</v>
       </c>
@@ -21910,7 +21916,7 @@
         <v>3.1638730000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -21991,7 +21997,7 @@
         <v>1.236256</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>28</v>
       </c>
@@ -22072,7 +22078,7 @@
         <v>3.4208750000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -22153,7 +22159,7 @@
         <v>2.3371369999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -22234,7 +22240,7 @@
         <v>1.1481049999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -22315,7 +22321,7 @@
         <v>1.3203769999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>28</v>
       </c>
@@ -22396,7 +22402,7 @@
         <v>1.2635890000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>28</v>
       </c>
@@ -22477,7 +22483,7 @@
         <v>2.0719989999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>28</v>
       </c>
@@ -22567,19 +22573,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625925E2-9CE3-49CD-A1E7-3FA69ADCD100}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -22589,8 +22595,11 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22601,8 +22610,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A2,bench_2b!K:K)</f>
         <v>46702620.21786949</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D2" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A2,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A2,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A2,bench_2b!K:K))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -22613,8 +22626,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A3,bench_2b!K:K)</f>
         <v>83729.446141459761</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D3" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A3,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A3,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A3,bench_2b!K:K))</f>
+        <v>0.99963718119765987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.2</v>
       </c>
@@ -22625,8 +22642,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A4,bench_2b!K:K)</f>
         <v>43202.484322325021</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D4" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A4,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A4,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A4,bench_2b!K:K))</f>
+        <v>0.99988728969053375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
@@ -22637,8 +22658,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A5,bench_2b!K:K)</f>
         <v>25351.943704338035</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D5" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A5,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A5,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A5,bench_2b!K:K))</f>
+        <v>0.99995401569076625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -22649,8 +22674,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A6,bench_2b!K:K)</f>
         <v>19525.339940849346</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D6" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A6,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A6,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A6,bench_2b!K:K))</f>
+        <v>0.99996984209515516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.5</v>
       </c>
@@ -22661,8 +22690,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A7,bench_2b!K:K)</f>
         <v>14101.49352126359</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D7" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A7,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A7,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A7,bench_2b!K:K))</f>
+        <v>0.9999824082862937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.6</v>
       </c>
@@ -22673,8 +22706,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A8,bench_2b!K:K)</f>
         <v>12159.382506141754</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D8" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A8,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A8,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A8,bench_2b!K:K))</f>
+        <v>0.99998598131728345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.7</v>
       </c>
@@ -22685,8 +22722,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A9,bench_2b!K:K)</f>
         <v>10720.714799801091</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D9" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A9,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A9,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A9,bench_2b!K:K))</f>
+        <v>0.99998771339844383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.8</v>
       </c>
@@ -22697,8 +22738,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A10,bench_2b!K:K)</f>
         <v>8591.9632607656422</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D10" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A10,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A10,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A10,bench_2b!K:K))</f>
+        <v>0.99999131135410979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.9</v>
       </c>
@@ -22709,8 +22754,12 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A11,bench_2b!K:K)</f>
         <v>7869.6436075416686</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D11" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A11,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A11,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A11,bench_2b!K:K))</f>
+        <v>0.99999144761077019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -22721,71 +22770,75 @@
         <f>AVERAGEIF(bench_2b!I:I,Fig2b!A12,bench_2b!K:K)</f>
         <v>6452.1330933450545</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+      <c r="D12" s="1">
+        <f>AVERAGEIF(bench_2b!I:I,Fig2b!A12,bench_2b!M:M) / (AVERAGEIF(bench_2b!I:I,Fig2b!A12,bench_2b!M:M) + AVERAGEIF(bench_2b!I:I,Fig2b!A12,bench_2b!K:K))</f>
+        <v>0.99999425596304914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A34"/>
     </row>
   </sheetData>
@@ -22804,16 +22857,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="12" width="9.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" customWidth="1"/>
-    <col min="14" max="26" width="9.6328125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="12" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="14" max="26" width="9.6640625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -22893,7 +22946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -22974,7 +23027,7 @@
         <v>1.580516</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -23055,7 +23108,7 @@
         <v>1.249458</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -23136,7 +23189,7 @@
         <v>2.2683770000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -23217,7 +23270,7 @@
         <v>97.792522000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -23298,7 +23351,7 @@
         <v>84.871877999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -23379,7 +23432,7 @@
         <v>104.540927</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -23460,7 +23513,7 @@
         <v>112.85988399999999</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -23541,7 +23594,7 @@
         <v>141.27271999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -23622,7 +23675,7 @@
         <v>162.64229700000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -23703,7 +23756,7 @@
         <v>241.332796</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -23784,7 +23837,7 @@
         <v>178.550128</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -23865,7 +23918,7 @@
         <v>229.89775700000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -23946,7 +23999,7 @@
         <v>242.33207899999999</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -24027,7 +24080,7 @@
         <v>235.29544000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -24108,7 +24161,7 @@
         <v>233.57645199999999</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -24189,7 +24242,7 @@
         <v>372.17847599999999</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -24270,7 +24323,7 @@
         <v>334.436621</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -24351,7 +24404,7 @@
         <v>329.23897799999997</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -24432,7 +24485,7 @@
         <v>360.38017400000001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -24513,7 +24566,7 @@
         <v>299.27305000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -24594,7 +24647,7 @@
         <v>360.33580499999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -24675,7 +24728,7 @@
         <v>324.977146</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -24756,7 +24809,7 @@
         <v>302.10337800000002</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -24837,7 +24890,7 @@
         <v>332.70531499999998</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -24918,7 +24971,7 @@
         <v>348.99243799999999</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -24999,7 +25052,7 @@
         <v>346.14347800000002</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -25080,7 +25133,7 @@
         <v>570.29776000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -25161,7 +25214,7 @@
         <v>325.58158500000002</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -25242,7 +25295,7 @@
         <v>375.90602200000001</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -25323,7 +25376,7 @@
         <v>378.03285099999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -25404,7 +25457,7 @@
         <v>524.03477199999998</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -25485,7 +25538,7 @@
         <v>740.36780499999998</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -25577,16 +25630,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C69568B-6505-4ADA-B8B1-3976A3FC85B8}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25603,7 +25656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -25624,7 +25677,7 @@
         <v>0.19935203284347364</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -25645,7 +25698,7 @@
         <v>2.1451317757237587</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -25666,7 +25719,7 @@
         <v>4.2317448239750055</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -25687,7 +25740,7 @@
         <v>6.1422804206073707</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -25708,7 +25761,7 @@
         <v>7.9773857968309745</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -25729,7 +25782,7 @@
         <v>9.7186673835598061</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -25750,7 +25803,7 @@
         <v>11.468546272960177</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -25771,7 +25824,7 @@
         <v>13.116905706951201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -25792,139 +25845,139 @@
         <v>14.819916709943339</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A55"/>
     </row>
   </sheetData>
@@ -25943,12 +25996,12 @@
       <selection activeCell="K3" sqref="K3:K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -26028,7 +26081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -26109,7 +26162,7 @@
         <v>3.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -26190,7 +26243,7 @@
         <v>3.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -26271,7 +26324,7 @@
         <v>3.375E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -26352,7 +26405,7 @@
         <v>4.1506000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -26433,7 +26486,7 @@
         <v>4.0007000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -26514,7 +26567,7 @@
         <v>4.0204999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -26595,7 +26648,7 @@
         <v>8.3551E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -26676,7 +26729,7 @@
         <v>8.1356999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -26757,7 +26810,7 @@
         <v>8.4505999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -26838,7 +26891,7 @@
         <v>0.120624</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -26919,7 +26972,7 @@
         <v>0.121449</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -27000,7 +27053,7 @@
         <v>0.123344</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -27081,7 +27134,7 @@
         <v>0.16131300000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -27162,7 +27215,7 @@
         <v>0.15873300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -27243,7 +27296,7 @@
         <v>0.17313600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -27324,7 +27377,7 @@
         <v>0.23213900000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -27405,7 +27458,7 @@
         <v>0.22437299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -27486,7 +27539,7 @@
         <v>0.20646500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -27567,7 +27620,7 @@
         <v>0.26238099999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -27648,7 +27701,7 @@
         <v>0.26716600000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -27729,7 +27782,7 @@
         <v>0.27703800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -27810,7 +27863,7 @@
         <v>0.32120799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -27891,7 +27944,7 @@
         <v>0.326463</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -27972,7 +28025,7 @@
         <v>0.33179799999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -28053,7 +28106,7 @@
         <v>0.370896</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -28134,7 +28187,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -28215,7 +28268,7 @@
         <v>0.37522</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -28296,7 +28349,7 @@
         <v>3.6410000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -28377,7 +28430,7 @@
         <v>3.9110000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -28458,7 +28511,7 @@
         <v>3.9709999999999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -28539,7 +28592,7 @@
         <v>4.4214999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -28620,7 +28673,7 @@
         <v>4.4798999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -28701,7 +28754,7 @@
         <v>4.2415000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -28782,7 +28835,7 @@
         <v>8.9498999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -28863,7 +28916,7 @@
         <v>8.8761000000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -28944,7 +28997,7 @@
         <v>8.9171E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -29025,7 +29078,7 @@
         <v>0.138902</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -29106,7 +29159,7 @@
         <v>0.13678699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -29187,7 +29240,7 @@
         <v>0.14139099999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -29268,7 +29321,7 @@
         <v>0.19437099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -29349,7 +29402,7 @@
         <v>0.182472</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -29430,7 +29483,7 @@
         <v>0.18451000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -29511,7 +29564,7 @@
         <v>0.24043500000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -29592,7 +29645,7 @@
         <v>0.25252799999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -29673,7 +29726,7 @@
         <v>0.23724000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -29754,7 +29807,7 @@
         <v>0.28930099999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -29835,7 +29888,7 @@
         <v>0.31335400000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -29916,7 +29969,7 @@
         <v>0.293049</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -29997,7 +30050,7 @@
         <v>0.37568200000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -30078,7 +30131,7 @@
         <v>0.34495599999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -30159,7 +30212,7 @@
         <v>0.36095500000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -30240,7 +30293,7 @@
         <v>0.40013300000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -30321,7 +30374,7 @@
         <v>0.41467500000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -30416,12 +30469,12 @@
       <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30432,7 +30485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -30453,7 +30506,7 @@
         <v>3.4586136873018251E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -30474,7 +30527,7 @@
         <v>0.32291659310204485</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -30495,7 +30548,7 @@
         <v>0.6548253171761137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -30516,7 +30569,7 @@
         <v>0.97646102141107538</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -30537,7 +30590,7 @@
         <v>1.286864948758389</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -30558,7 +30611,7 @@
         <v>1.6008218391718398</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -30579,7 +30632,7 @@
         <v>1.9139328353875957</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -30600,7 +30653,7 @@
         <v>2.2020881416854379</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -30621,139 +30674,139 @@
         <v>2.4947701361994801</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A55"/>
     </row>
   </sheetData>
@@ -30772,12 +30825,12 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -30857,7 +30910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -30938,7 +30991,7 @@
         <v>3.1740000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -31019,7 +31072,7 @@
         <v>3.179E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -31100,7 +31153,7 @@
         <v>3.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -31181,7 +31234,7 @@
         <v>4.0832E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -31262,7 +31315,7 @@
         <v>4.1778000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -31343,7 +31396,7 @@
         <v>4.2369999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -31424,7 +31477,7 @@
         <v>9.0107999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -31505,7 +31558,7 @@
         <v>9.1863E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -31586,7 +31639,7 @@
         <v>9.1149999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -31667,7 +31720,7 @@
         <v>0.16400400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -31748,7 +31801,7 @@
         <v>0.16111300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -31829,7 +31882,7 @@
         <v>0.16993</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -31910,7 +31963,7 @@
         <v>0.240647</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -31991,7 +32044,7 @@
         <v>0.24956500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -32072,7 +32125,7 @@
         <v>0.240734</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -32153,7 +32206,7 @@
         <v>0.31725199999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -32234,7 +32287,7 @@
         <v>0.33099800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -32315,7 +32368,7 @@
         <v>0.32419500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -32396,7 +32449,7 @@
         <v>0.413748</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -32477,7 +32530,7 @@
         <v>0.41162399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -32558,7 +32611,7 @@
         <v>0.393146</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -32639,7 +32692,7 @@
         <v>0.52662699999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -32720,7 +32773,7 @@
         <v>0.50478500000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -32801,7 +32854,7 @@
         <v>0.50179700000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -32882,7 +32935,7 @@
         <v>0.63847100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -32963,7 +33016,7 @@
         <v>0.58028500000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -33044,7 +33097,7 @@
         <v>0.60988100000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -33125,7 +33178,7 @@
         <v>3.202E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -33206,7 +33259,7 @@
         <v>3.2230000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -33287,7 +33340,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -33368,7 +33421,7 @@
         <v>3.6986999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -33449,7 +33502,7 @@
         <v>3.5865000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -33530,7 +33583,7 @@
         <v>3.6442000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -33611,7 +33664,7 @@
         <v>7.2838E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -33692,7 +33745,7 @@
         <v>7.2764999999999996E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -33773,7 +33826,7 @@
         <v>7.3301000000000005E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -33854,7 +33907,7 @@
         <v>0.11323</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -33935,7 +33988,7 @@
         <v>0.113521</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -34016,7 +34069,7 @@
         <v>0.111609</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -34097,7 +34150,7 @@
         <v>0.169736</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -34178,7 +34231,7 @@
         <v>0.16727300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -34259,7 +34312,7 @@
         <v>0.16553899999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -34340,7 +34393,7 @@
         <v>0.20991499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -34421,7 +34474,7 @@
         <v>0.21148700000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -34502,7 +34555,7 @@
         <v>0.21859700000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -34583,7 +34636,7 @@
         <v>0.27087499999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -34664,7 +34717,7 @@
         <v>0.26176300000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -34745,7 +34798,7 @@
         <v>0.26092199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -34826,7 +34879,7 @@
         <v>0.32787699999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -34907,7 +34960,7 @@
         <v>0.33280599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -34988,7 +35041,7 @@
         <v>0.32684000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -35069,7 +35122,7 @@
         <v>0.41009400000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -35150,7 +35203,7 @@
         <v>0.40504099999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
